--- a/data/LP48_Zones.xlsx
+++ b/data/LP48_Zones.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t xml:space="preserve">NAME OF PASTOR I/C </t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>S/N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -</t>
   </si>
 </sst>
 </file>
@@ -543,8 +546,8 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -596,7 +599,9 @@
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
@@ -663,7 +668,9 @@
       <c r="F5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
@@ -684,7 +691,9 @@
       <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>

--- a/data/LP48_Zones.xlsx
+++ b/data/LP48_Zones.xlsx
@@ -544,252 +544,242 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="4" customWidth="1"/>
-    <col min="3" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="66.4140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.08203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="20" customWidth="1"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="66.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="B1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="B5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="B6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="B7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="B8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="B9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -798,7 +788,6 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
